--- a/Data Memory Register Map.xlsx
+++ b/Data Memory Register Map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cengizhan/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2E5A2D-86B6-954D-8639-6D5329F6EECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA086CDE-EB43-9949-A30C-2C9E8F05F2E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19360" xr2:uid="{2D85625D-8CE6-4644-9334-84C96BA8B5A5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="53">
   <si>
     <t>DMC_START</t>
   </si>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t>DATA MEMORY REGISTER MAP</t>
+  </si>
+  <si>
+    <t>0x0000 0000</t>
   </si>
 </sst>
 </file>
@@ -326,23 +329,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -356,21 +364,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -712,8 +715,8 @@
   </sheetPr>
   <dimension ref="B2:Q142"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W24" sqref="W24"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D134" sqref="D134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -722,62 +725,62 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="8"/>
+      <c r="C7" s="7"/>
       <c r="D7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="7"/>
+      <c r="C8" s="8"/>
       <c r="D8" t="s">
         <v>12</v>
       </c>
@@ -833,24 +836,24 @@
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="6"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="19"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
@@ -971,34 +974,34 @@
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="12" t="s">
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="12" t="s">
+      <c r="J15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K15" s="13" t="s">
+      <c r="K15" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="12" t="s">
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="P15" s="12" t="s">
+      <c r="P15" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="Q15" s="12" t="s">
+      <c r="Q15" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1030,12 +1033,12 @@
       <c r="J16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
+      <c r="K16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
       <c r="O16" s="2" t="s">
         <v>7</v>
       </c>
@@ -1047,26 +1050,26 @@
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="8"/>
+      <c r="C21" s="7"/>
       <c r="D21" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="7"/>
+      <c r="C22" s="8"/>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.2">
@@ -1120,44 +1123,44 @@
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="16"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="11"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B26" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="11"/>
+      <c r="B26" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="14"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B28" s="1">
@@ -1210,66 +1213,66 @@
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="16"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="11"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B30" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="11"/>
+      <c r="B30" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="14"/>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="8"/>
+      <c r="C35" s="7"/>
       <c r="D35" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="7"/>
+      <c r="C36" s="8"/>
       <c r="D36" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.2">
@@ -1323,44 +1326,44 @@
       </c>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="15"/>
-      <c r="P39" s="15"/>
-      <c r="Q39" s="16"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="11"/>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B40" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="11"/>
+      <c r="B40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="14"/>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B42" s="1">
@@ -1413,66 +1416,66 @@
       </c>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="15"/>
-      <c r="L43" s="15"/>
-      <c r="M43" s="15"/>
-      <c r="N43" s="15"/>
-      <c r="O43" s="15"/>
-      <c r="P43" s="15"/>
-      <c r="Q43" s="16"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="11"/>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B44" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="10"/>
-      <c r="P44" s="10"/>
-      <c r="Q44" s="11"/>
+      <c r="B44" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+      <c r="N44" s="13"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="14"/>
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="49" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C49" s="8"/>
+      <c r="C49" s="7"/>
       <c r="D49" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="50" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C50" s="7"/>
+      <c r="C50" s="8"/>
       <c r="D50" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="2:17" x14ac:dyDescent="0.2">
@@ -1526,44 +1529,44 @@
       </c>
     </row>
     <row r="53" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="15"/>
-      <c r="K53" s="15"/>
-      <c r="L53" s="15"/>
-      <c r="M53" s="15"/>
-      <c r="N53" s="15"/>
-      <c r="O53" s="15"/>
-      <c r="P53" s="15"/>
-      <c r="Q53" s="16"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="10"/>
+      <c r="Q53" s="11"/>
     </row>
     <row r="54" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B54" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="10"/>
-      <c r="K54" s="10"/>
-      <c r="L54" s="10"/>
-      <c r="M54" s="10"/>
-      <c r="N54" s="10"/>
-      <c r="O54" s="10"/>
-      <c r="P54" s="10"/>
-      <c r="Q54" s="11"/>
+      <c r="B54" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="13"/>
+      <c r="M54" s="13"/>
+      <c r="N54" s="13"/>
+      <c r="O54" s="13"/>
+      <c r="P54" s="13"/>
+      <c r="Q54" s="14"/>
     </row>
     <row r="56" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B56" s="1">
@@ -1616,66 +1619,66 @@
       </c>
     </row>
     <row r="57" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B57" s="14" t="s">
+      <c r="B57" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="15"/>
-      <c r="K57" s="15"/>
-      <c r="L57" s="15"/>
-      <c r="M57" s="15"/>
-      <c r="N57" s="15"/>
-      <c r="O57" s="15"/>
-      <c r="P57" s="15"/>
-      <c r="Q57" s="16"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="10"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="10"/>
+      <c r="O57" s="10"/>
+      <c r="P57" s="10"/>
+      <c r="Q57" s="11"/>
     </row>
     <row r="58" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B58" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="10"/>
-      <c r="K58" s="10"/>
-      <c r="L58" s="10"/>
-      <c r="M58" s="10"/>
-      <c r="N58" s="10"/>
-      <c r="O58" s="10"/>
-      <c r="P58" s="10"/>
-      <c r="Q58" s="11"/>
+      <c r="B58" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="13"/>
+      <c r="K58" s="13"/>
+      <c r="L58" s="13"/>
+      <c r="M58" s="13"/>
+      <c r="N58" s="13"/>
+      <c r="O58" s="13"/>
+      <c r="P58" s="13"/>
+      <c r="Q58" s="14"/>
     </row>
     <row r="61" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B61" s="18" t="s">
+      <c r="B61" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="63" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C63" s="8"/>
+      <c r="C63" s="7"/>
       <c r="D63" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C64" s="7"/>
+      <c r="C64" s="8"/>
       <c r="D64" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="66" spans="2:17" x14ac:dyDescent="0.2">
@@ -1729,44 +1732,44 @@
       </c>
     </row>
     <row r="67" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B67" s="14" t="s">
+      <c r="B67" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="15"/>
-      <c r="K67" s="15"/>
-      <c r="L67" s="15"/>
-      <c r="M67" s="15"/>
-      <c r="N67" s="15"/>
-      <c r="O67" s="15"/>
-      <c r="P67" s="15"/>
-      <c r="Q67" s="16"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="10"/>
+      <c r="K67" s="10"/>
+      <c r="L67" s="10"/>
+      <c r="M67" s="10"/>
+      <c r="N67" s="10"/>
+      <c r="O67" s="10"/>
+      <c r="P67" s="10"/>
+      <c r="Q67" s="11"/>
     </row>
     <row r="68" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B68" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="10"/>
-      <c r="I68" s="10"/>
-      <c r="J68" s="10"/>
-      <c r="K68" s="10"/>
-      <c r="L68" s="10"/>
-      <c r="M68" s="10"/>
-      <c r="N68" s="10"/>
-      <c r="O68" s="10"/>
-      <c r="P68" s="10"/>
-      <c r="Q68" s="11"/>
+      <c r="B68" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="13"/>
+      <c r="J68" s="13"/>
+      <c r="K68" s="13"/>
+      <c r="L68" s="13"/>
+      <c r="M68" s="13"/>
+      <c r="N68" s="13"/>
+      <c r="O68" s="13"/>
+      <c r="P68" s="13"/>
+      <c r="Q68" s="14"/>
     </row>
     <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B70" s="1">
@@ -1819,66 +1822,66 @@
       </c>
     </row>
     <row r="71" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B71" s="14" t="s">
+      <c r="B71" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="15"/>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="15"/>
-      <c r="K71" s="15"/>
-      <c r="L71" s="15"/>
-      <c r="M71" s="15"/>
-      <c r="N71" s="15"/>
-      <c r="O71" s="15"/>
-      <c r="P71" s="15"/>
-      <c r="Q71" s="16"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="10"/>
+      <c r="L71" s="10"/>
+      <c r="M71" s="10"/>
+      <c r="N71" s="10"/>
+      <c r="O71" s="10"/>
+      <c r="P71" s="10"/>
+      <c r="Q71" s="11"/>
     </row>
     <row r="72" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B72" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
-      <c r="G72" s="10"/>
-      <c r="H72" s="10"/>
-      <c r="I72" s="10"/>
-      <c r="J72" s="10"/>
-      <c r="K72" s="10"/>
-      <c r="L72" s="10"/>
-      <c r="M72" s="10"/>
-      <c r="N72" s="10"/>
-      <c r="O72" s="10"/>
-      <c r="P72" s="10"/>
-      <c r="Q72" s="11"/>
+      <c r="B72" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="13"/>
+      <c r="I72" s="13"/>
+      <c r="J72" s="13"/>
+      <c r="K72" s="13"/>
+      <c r="L72" s="13"/>
+      <c r="M72" s="13"/>
+      <c r="N72" s="13"/>
+      <c r="O72" s="13"/>
+      <c r="P72" s="13"/>
+      <c r="Q72" s="14"/>
     </row>
     <row r="75" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B75" s="18" t="s">
+      <c r="B75" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="77" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B77" s="8" t="s">
+      <c r="B77" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C77" s="8"/>
+      <c r="C77" s="7"/>
       <c r="D77" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="78" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C78" s="7"/>
+      <c r="C78" s="8"/>
       <c r="D78" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="80" spans="2:17" x14ac:dyDescent="0.2">
@@ -1932,44 +1935,44 @@
       </c>
     </row>
     <row r="81" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B81" s="14" t="s">
+      <c r="B81" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C81" s="15"/>
-      <c r="D81" s="15"/>
-      <c r="E81" s="15"/>
-      <c r="F81" s="15"/>
-      <c r="G81" s="15"/>
-      <c r="H81" s="15"/>
-      <c r="I81" s="15"/>
-      <c r="J81" s="15"/>
-      <c r="K81" s="15"/>
-      <c r="L81" s="15"/>
-      <c r="M81" s="15"/>
-      <c r="N81" s="15"/>
-      <c r="O81" s="15"/>
-      <c r="P81" s="15"/>
-      <c r="Q81" s="16"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10"/>
+      <c r="I81" s="10"/>
+      <c r="J81" s="10"/>
+      <c r="K81" s="10"/>
+      <c r="L81" s="10"/>
+      <c r="M81" s="10"/>
+      <c r="N81" s="10"/>
+      <c r="O81" s="10"/>
+      <c r="P81" s="10"/>
+      <c r="Q81" s="11"/>
     </row>
     <row r="82" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B82" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C82" s="10"/>
-      <c r="D82" s="10"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="10"/>
-      <c r="G82" s="10"/>
-      <c r="H82" s="10"/>
-      <c r="I82" s="10"/>
-      <c r="J82" s="10"/>
-      <c r="K82" s="10"/>
-      <c r="L82" s="10"/>
-      <c r="M82" s="10"/>
-      <c r="N82" s="10"/>
-      <c r="O82" s="10"/>
-      <c r="P82" s="10"/>
-      <c r="Q82" s="11"/>
+      <c r="B82" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="13"/>
+      <c r="I82" s="13"/>
+      <c r="J82" s="13"/>
+      <c r="K82" s="13"/>
+      <c r="L82" s="13"/>
+      <c r="M82" s="13"/>
+      <c r="N82" s="13"/>
+      <c r="O82" s="13"/>
+      <c r="P82" s="13"/>
+      <c r="Q82" s="14"/>
     </row>
     <row r="84" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B84" s="1">
@@ -2022,66 +2025,66 @@
       </c>
     </row>
     <row r="85" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B85" s="14" t="s">
+      <c r="B85" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C85" s="15"/>
-      <c r="D85" s="15"/>
-      <c r="E85" s="15"/>
-      <c r="F85" s="15"/>
-      <c r="G85" s="15"/>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
-      <c r="J85" s="15"/>
-      <c r="K85" s="15"/>
-      <c r="L85" s="15"/>
-      <c r="M85" s="15"/>
-      <c r="N85" s="15"/>
-      <c r="O85" s="15"/>
-      <c r="P85" s="15"/>
-      <c r="Q85" s="16"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="10"/>
+      <c r="I85" s="10"/>
+      <c r="J85" s="10"/>
+      <c r="K85" s="10"/>
+      <c r="L85" s="10"/>
+      <c r="M85" s="10"/>
+      <c r="N85" s="10"/>
+      <c r="O85" s="10"/>
+      <c r="P85" s="10"/>
+      <c r="Q85" s="11"/>
     </row>
     <row r="86" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B86" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C86" s="10"/>
-      <c r="D86" s="10"/>
-      <c r="E86" s="10"/>
-      <c r="F86" s="10"/>
-      <c r="G86" s="10"/>
-      <c r="H86" s="10"/>
-      <c r="I86" s="10"/>
-      <c r="J86" s="10"/>
-      <c r="K86" s="10"/>
-      <c r="L86" s="10"/>
-      <c r="M86" s="10"/>
-      <c r="N86" s="10"/>
-      <c r="O86" s="10"/>
-      <c r="P86" s="10"/>
-      <c r="Q86" s="11"/>
+      <c r="B86" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="13"/>
+      <c r="G86" s="13"/>
+      <c r="H86" s="13"/>
+      <c r="I86" s="13"/>
+      <c r="J86" s="13"/>
+      <c r="K86" s="13"/>
+      <c r="L86" s="13"/>
+      <c r="M86" s="13"/>
+      <c r="N86" s="13"/>
+      <c r="O86" s="13"/>
+      <c r="P86" s="13"/>
+      <c r="Q86" s="14"/>
     </row>
     <row r="89" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B89" s="18" t="s">
+      <c r="B89" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="91" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B91" s="8" t="s">
+      <c r="B91" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C91" s="8"/>
+      <c r="C91" s="7"/>
       <c r="D91" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="92" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B92" s="7" t="s">
+      <c r="B92" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C92" s="7"/>
+      <c r="C92" s="8"/>
       <c r="D92" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="94" spans="2:17" x14ac:dyDescent="0.2">
@@ -2135,44 +2138,44 @@
       </c>
     </row>
     <row r="95" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B95" s="14" t="s">
+      <c r="B95" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C95" s="15"/>
-      <c r="D95" s="15"/>
-      <c r="E95" s="15"/>
-      <c r="F95" s="15"/>
-      <c r="G95" s="15"/>
-      <c r="H95" s="15"/>
-      <c r="I95" s="15"/>
-      <c r="J95" s="15"/>
-      <c r="K95" s="15"/>
-      <c r="L95" s="15"/>
-      <c r="M95" s="15"/>
-      <c r="N95" s="15"/>
-      <c r="O95" s="15"/>
-      <c r="P95" s="15"/>
-      <c r="Q95" s="16"/>
+      <c r="C95" s="10"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="10"/>
+      <c r="F95" s="10"/>
+      <c r="G95" s="10"/>
+      <c r="H95" s="10"/>
+      <c r="I95" s="10"/>
+      <c r="J95" s="10"/>
+      <c r="K95" s="10"/>
+      <c r="L95" s="10"/>
+      <c r="M95" s="10"/>
+      <c r="N95" s="10"/>
+      <c r="O95" s="10"/>
+      <c r="P95" s="10"/>
+      <c r="Q95" s="11"/>
     </row>
     <row r="96" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B96" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C96" s="10"/>
-      <c r="D96" s="10"/>
-      <c r="E96" s="10"/>
-      <c r="F96" s="10"/>
-      <c r="G96" s="10"/>
-      <c r="H96" s="10"/>
-      <c r="I96" s="10"/>
-      <c r="J96" s="10"/>
-      <c r="K96" s="10"/>
-      <c r="L96" s="10"/>
-      <c r="M96" s="10"/>
-      <c r="N96" s="10"/>
-      <c r="O96" s="10"/>
-      <c r="P96" s="10"/>
-      <c r="Q96" s="11"/>
+      <c r="B96" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96" s="13"/>
+      <c r="D96" s="13"/>
+      <c r="E96" s="13"/>
+      <c r="F96" s="13"/>
+      <c r="G96" s="13"/>
+      <c r="H96" s="13"/>
+      <c r="I96" s="13"/>
+      <c r="J96" s="13"/>
+      <c r="K96" s="13"/>
+      <c r="L96" s="13"/>
+      <c r="M96" s="13"/>
+      <c r="N96" s="13"/>
+      <c r="O96" s="13"/>
+      <c r="P96" s="13"/>
+      <c r="Q96" s="14"/>
     </row>
     <row r="98" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B98" s="1">
@@ -2225,66 +2228,66 @@
       </c>
     </row>
     <row r="99" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B99" s="14" t="s">
+      <c r="B99" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C99" s="15"/>
-      <c r="D99" s="15"/>
-      <c r="E99" s="15"/>
-      <c r="F99" s="15"/>
-      <c r="G99" s="15"/>
-      <c r="H99" s="15"/>
-      <c r="I99" s="15"/>
-      <c r="J99" s="15"/>
-      <c r="K99" s="15"/>
-      <c r="L99" s="15"/>
-      <c r="M99" s="15"/>
-      <c r="N99" s="15"/>
-      <c r="O99" s="15"/>
-      <c r="P99" s="15"/>
-      <c r="Q99" s="16"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="10"/>
+      <c r="G99" s="10"/>
+      <c r="H99" s="10"/>
+      <c r="I99" s="10"/>
+      <c r="J99" s="10"/>
+      <c r="K99" s="10"/>
+      <c r="L99" s="10"/>
+      <c r="M99" s="10"/>
+      <c r="N99" s="10"/>
+      <c r="O99" s="10"/>
+      <c r="P99" s="10"/>
+      <c r="Q99" s="11"/>
     </row>
     <row r="100" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B100" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C100" s="10"/>
-      <c r="D100" s="10"/>
-      <c r="E100" s="10"/>
-      <c r="F100" s="10"/>
-      <c r="G100" s="10"/>
-      <c r="H100" s="10"/>
-      <c r="I100" s="10"/>
-      <c r="J100" s="10"/>
-      <c r="K100" s="10"/>
-      <c r="L100" s="10"/>
-      <c r="M100" s="10"/>
-      <c r="N100" s="10"/>
-      <c r="O100" s="10"/>
-      <c r="P100" s="10"/>
-      <c r="Q100" s="11"/>
+      <c r="B100" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100" s="13"/>
+      <c r="D100" s="13"/>
+      <c r="E100" s="13"/>
+      <c r="F100" s="13"/>
+      <c r="G100" s="13"/>
+      <c r="H100" s="13"/>
+      <c r="I100" s="13"/>
+      <c r="J100" s="13"/>
+      <c r="K100" s="13"/>
+      <c r="L100" s="13"/>
+      <c r="M100" s="13"/>
+      <c r="N100" s="13"/>
+      <c r="O100" s="13"/>
+      <c r="P100" s="13"/>
+      <c r="Q100" s="14"/>
     </row>
     <row r="103" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B103" s="18" t="s">
+      <c r="B103" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="105" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B105" s="8" t="s">
+      <c r="B105" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C105" s="8"/>
+      <c r="C105" s="7"/>
       <c r="D105" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="106" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B106" s="7" t="s">
+      <c r="B106" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C106" s="7"/>
+      <c r="C106" s="8"/>
       <c r="D106" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="108" spans="2:17" x14ac:dyDescent="0.2">
@@ -2338,44 +2341,44 @@
       </c>
     </row>
     <row r="109" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B109" s="14" t="s">
+      <c r="B109" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C109" s="15"/>
-      <c r="D109" s="15"/>
-      <c r="E109" s="15"/>
-      <c r="F109" s="15"/>
-      <c r="G109" s="15"/>
-      <c r="H109" s="15"/>
-      <c r="I109" s="15"/>
-      <c r="J109" s="15"/>
-      <c r="K109" s="15"/>
-      <c r="L109" s="15"/>
-      <c r="M109" s="15"/>
-      <c r="N109" s="15"/>
-      <c r="O109" s="15"/>
-      <c r="P109" s="15"/>
-      <c r="Q109" s="16"/>
+      <c r="C109" s="10"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="10"/>
+      <c r="F109" s="10"/>
+      <c r="G109" s="10"/>
+      <c r="H109" s="10"/>
+      <c r="I109" s="10"/>
+      <c r="J109" s="10"/>
+      <c r="K109" s="10"/>
+      <c r="L109" s="10"/>
+      <c r="M109" s="10"/>
+      <c r="N109" s="10"/>
+      <c r="O109" s="10"/>
+      <c r="P109" s="10"/>
+      <c r="Q109" s="11"/>
     </row>
     <row r="110" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B110" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C110" s="10"/>
-      <c r="D110" s="10"/>
-      <c r="E110" s="10"/>
-      <c r="F110" s="10"/>
-      <c r="G110" s="10"/>
-      <c r="H110" s="10"/>
-      <c r="I110" s="10"/>
-      <c r="J110" s="10"/>
-      <c r="K110" s="10"/>
-      <c r="L110" s="10"/>
-      <c r="M110" s="10"/>
-      <c r="N110" s="10"/>
-      <c r="O110" s="10"/>
-      <c r="P110" s="10"/>
-      <c r="Q110" s="11"/>
+      <c r="B110" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C110" s="13"/>
+      <c r="D110" s="13"/>
+      <c r="E110" s="13"/>
+      <c r="F110" s="13"/>
+      <c r="G110" s="13"/>
+      <c r="H110" s="13"/>
+      <c r="I110" s="13"/>
+      <c r="J110" s="13"/>
+      <c r="K110" s="13"/>
+      <c r="L110" s="13"/>
+      <c r="M110" s="13"/>
+      <c r="N110" s="13"/>
+      <c r="O110" s="13"/>
+      <c r="P110" s="13"/>
+      <c r="Q110" s="14"/>
     </row>
     <row r="112" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B112" s="1">
@@ -2428,66 +2431,66 @@
       </c>
     </row>
     <row r="113" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B113" s="14" t="s">
+      <c r="B113" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C113" s="15"/>
-      <c r="D113" s="15"/>
-      <c r="E113" s="15"/>
-      <c r="F113" s="15"/>
-      <c r="G113" s="15"/>
-      <c r="H113" s="15"/>
-      <c r="I113" s="15"/>
-      <c r="J113" s="15"/>
-      <c r="K113" s="15"/>
-      <c r="L113" s="15"/>
-      <c r="M113" s="15"/>
-      <c r="N113" s="15"/>
-      <c r="O113" s="15"/>
-      <c r="P113" s="15"/>
-      <c r="Q113" s="16"/>
+      <c r="C113" s="10"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="10"/>
+      <c r="F113" s="10"/>
+      <c r="G113" s="10"/>
+      <c r="H113" s="10"/>
+      <c r="I113" s="10"/>
+      <c r="J113" s="10"/>
+      <c r="K113" s="10"/>
+      <c r="L113" s="10"/>
+      <c r="M113" s="10"/>
+      <c r="N113" s="10"/>
+      <c r="O113" s="10"/>
+      <c r="P113" s="10"/>
+      <c r="Q113" s="11"/>
     </row>
     <row r="114" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B114" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C114" s="10"/>
-      <c r="D114" s="10"/>
-      <c r="E114" s="10"/>
-      <c r="F114" s="10"/>
-      <c r="G114" s="10"/>
-      <c r="H114" s="10"/>
-      <c r="I114" s="10"/>
-      <c r="J114" s="10"/>
-      <c r="K114" s="10"/>
-      <c r="L114" s="10"/>
-      <c r="M114" s="10"/>
-      <c r="N114" s="10"/>
-      <c r="O114" s="10"/>
-      <c r="P114" s="10"/>
-      <c r="Q114" s="11"/>
+      <c r="B114" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C114" s="13"/>
+      <c r="D114" s="13"/>
+      <c r="E114" s="13"/>
+      <c r="F114" s="13"/>
+      <c r="G114" s="13"/>
+      <c r="H114" s="13"/>
+      <c r="I114" s="13"/>
+      <c r="J114" s="13"/>
+      <c r="K114" s="13"/>
+      <c r="L114" s="13"/>
+      <c r="M114" s="13"/>
+      <c r="N114" s="13"/>
+      <c r="O114" s="13"/>
+      <c r="P114" s="13"/>
+      <c r="Q114" s="14"/>
     </row>
     <row r="117" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B117" s="18" t="s">
+      <c r="B117" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="119" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B119" s="8" t="s">
+      <c r="B119" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C119" s="8"/>
+      <c r="C119" s="7"/>
       <c r="D119" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="120" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B120" s="7" t="s">
+      <c r="B120" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C120" s="7"/>
+      <c r="C120" s="8"/>
       <c r="D120" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="122" spans="2:17" x14ac:dyDescent="0.2">
@@ -2541,44 +2544,44 @@
       </c>
     </row>
     <row r="123" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B123" s="14" t="s">
+      <c r="B123" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C123" s="15"/>
-      <c r="D123" s="15"/>
-      <c r="E123" s="15"/>
-      <c r="F123" s="15"/>
-      <c r="G123" s="15"/>
-      <c r="H123" s="15"/>
-      <c r="I123" s="15"/>
-      <c r="J123" s="15"/>
-      <c r="K123" s="15"/>
-      <c r="L123" s="15"/>
-      <c r="M123" s="15"/>
-      <c r="N123" s="15"/>
-      <c r="O123" s="15"/>
-      <c r="P123" s="15"/>
-      <c r="Q123" s="16"/>
+      <c r="C123" s="10"/>
+      <c r="D123" s="10"/>
+      <c r="E123" s="10"/>
+      <c r="F123" s="10"/>
+      <c r="G123" s="10"/>
+      <c r="H123" s="10"/>
+      <c r="I123" s="10"/>
+      <c r="J123" s="10"/>
+      <c r="K123" s="10"/>
+      <c r="L123" s="10"/>
+      <c r="M123" s="10"/>
+      <c r="N123" s="10"/>
+      <c r="O123" s="10"/>
+      <c r="P123" s="10"/>
+      <c r="Q123" s="11"/>
     </row>
     <row r="124" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B124" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C124" s="10"/>
-      <c r="D124" s="10"/>
-      <c r="E124" s="10"/>
-      <c r="F124" s="10"/>
-      <c r="G124" s="10"/>
-      <c r="H124" s="10"/>
-      <c r="I124" s="10"/>
-      <c r="J124" s="10"/>
-      <c r="K124" s="10"/>
-      <c r="L124" s="10"/>
-      <c r="M124" s="10"/>
-      <c r="N124" s="10"/>
-      <c r="O124" s="10"/>
-      <c r="P124" s="10"/>
-      <c r="Q124" s="11"/>
+      <c r="B124" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C124" s="13"/>
+      <c r="D124" s="13"/>
+      <c r="E124" s="13"/>
+      <c r="F124" s="13"/>
+      <c r="G124" s="13"/>
+      <c r="H124" s="13"/>
+      <c r="I124" s="13"/>
+      <c r="J124" s="13"/>
+      <c r="K124" s="13"/>
+      <c r="L124" s="13"/>
+      <c r="M124" s="13"/>
+      <c r="N124" s="13"/>
+      <c r="O124" s="13"/>
+      <c r="P124" s="13"/>
+      <c r="Q124" s="14"/>
     </row>
     <row r="126" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B126" s="1">
@@ -2631,66 +2634,66 @@
       </c>
     </row>
     <row r="127" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B127" s="14" t="s">
+      <c r="B127" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C127" s="15"/>
-      <c r="D127" s="15"/>
-      <c r="E127" s="15"/>
-      <c r="F127" s="15"/>
-      <c r="G127" s="15"/>
-      <c r="H127" s="15"/>
-      <c r="I127" s="15"/>
-      <c r="J127" s="15"/>
-      <c r="K127" s="15"/>
-      <c r="L127" s="15"/>
-      <c r="M127" s="15"/>
-      <c r="N127" s="15"/>
-      <c r="O127" s="15"/>
-      <c r="P127" s="15"/>
-      <c r="Q127" s="16"/>
+      <c r="C127" s="10"/>
+      <c r="D127" s="10"/>
+      <c r="E127" s="10"/>
+      <c r="F127" s="10"/>
+      <c r="G127" s="10"/>
+      <c r="H127" s="10"/>
+      <c r="I127" s="10"/>
+      <c r="J127" s="10"/>
+      <c r="K127" s="10"/>
+      <c r="L127" s="10"/>
+      <c r="M127" s="10"/>
+      <c r="N127" s="10"/>
+      <c r="O127" s="10"/>
+      <c r="P127" s="10"/>
+      <c r="Q127" s="11"/>
     </row>
     <row r="128" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B128" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C128" s="10"/>
-      <c r="D128" s="10"/>
-      <c r="E128" s="10"/>
-      <c r="F128" s="10"/>
-      <c r="G128" s="10"/>
-      <c r="H128" s="10"/>
-      <c r="I128" s="10"/>
-      <c r="J128" s="10"/>
-      <c r="K128" s="10"/>
-      <c r="L128" s="10"/>
-      <c r="M128" s="10"/>
-      <c r="N128" s="10"/>
-      <c r="O128" s="10"/>
-      <c r="P128" s="10"/>
-      <c r="Q128" s="11"/>
+      <c r="B128" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C128" s="13"/>
+      <c r="D128" s="13"/>
+      <c r="E128" s="13"/>
+      <c r="F128" s="13"/>
+      <c r="G128" s="13"/>
+      <c r="H128" s="13"/>
+      <c r="I128" s="13"/>
+      <c r="J128" s="13"/>
+      <c r="K128" s="13"/>
+      <c r="L128" s="13"/>
+      <c r="M128" s="13"/>
+      <c r="N128" s="13"/>
+      <c r="O128" s="13"/>
+      <c r="P128" s="13"/>
+      <c r="Q128" s="14"/>
     </row>
     <row r="131" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B131" s="18" t="s">
+      <c r="B131" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="133" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B133" s="8" t="s">
+      <c r="B133" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C133" s="8"/>
+      <c r="C133" s="7"/>
       <c r="D133" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="134" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B134" s="7" t="s">
+      <c r="B134" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C134" s="7"/>
+      <c r="C134" s="8"/>
       <c r="D134" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="136" spans="2:17" x14ac:dyDescent="0.2">
@@ -2744,44 +2747,44 @@
       </c>
     </row>
     <row r="137" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B137" s="14" t="s">
+      <c r="B137" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C137" s="15"/>
-      <c r="D137" s="15"/>
-      <c r="E137" s="15"/>
-      <c r="F137" s="15"/>
-      <c r="G137" s="15"/>
-      <c r="H137" s="15"/>
-      <c r="I137" s="15"/>
-      <c r="J137" s="15"/>
-      <c r="K137" s="15"/>
-      <c r="L137" s="15"/>
-      <c r="M137" s="15"/>
-      <c r="N137" s="15"/>
-      <c r="O137" s="15"/>
-      <c r="P137" s="15"/>
-      <c r="Q137" s="16"/>
+      <c r="C137" s="10"/>
+      <c r="D137" s="10"/>
+      <c r="E137" s="10"/>
+      <c r="F137" s="10"/>
+      <c r="G137" s="10"/>
+      <c r="H137" s="10"/>
+      <c r="I137" s="10"/>
+      <c r="J137" s="10"/>
+      <c r="K137" s="10"/>
+      <c r="L137" s="10"/>
+      <c r="M137" s="10"/>
+      <c r="N137" s="10"/>
+      <c r="O137" s="10"/>
+      <c r="P137" s="10"/>
+      <c r="Q137" s="11"/>
     </row>
     <row r="138" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B138" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C138" s="10"/>
-      <c r="D138" s="10"/>
-      <c r="E138" s="10"/>
-      <c r="F138" s="10"/>
-      <c r="G138" s="10"/>
-      <c r="H138" s="10"/>
-      <c r="I138" s="10"/>
-      <c r="J138" s="10"/>
-      <c r="K138" s="10"/>
-      <c r="L138" s="10"/>
-      <c r="M138" s="10"/>
-      <c r="N138" s="10"/>
-      <c r="O138" s="10"/>
-      <c r="P138" s="10"/>
-      <c r="Q138" s="11"/>
+      <c r="B138" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C138" s="13"/>
+      <c r="D138" s="13"/>
+      <c r="E138" s="13"/>
+      <c r="F138" s="13"/>
+      <c r="G138" s="13"/>
+      <c r="H138" s="13"/>
+      <c r="I138" s="13"/>
+      <c r="J138" s="13"/>
+      <c r="K138" s="13"/>
+      <c r="L138" s="13"/>
+      <c r="M138" s="13"/>
+      <c r="N138" s="13"/>
+      <c r="O138" s="13"/>
+      <c r="P138" s="13"/>
+      <c r="Q138" s="14"/>
     </row>
     <row r="140" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B140" s="1">
@@ -2834,52 +2837,80 @@
       </c>
     </row>
     <row r="141" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B141" s="14" t="s">
+      <c r="B141" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C141" s="15"/>
-      <c r="D141" s="15"/>
-      <c r="E141" s="15"/>
-      <c r="F141" s="15"/>
-      <c r="G141" s="15"/>
-      <c r="H141" s="15"/>
-      <c r="I141" s="15"/>
-      <c r="J141" s="15"/>
-      <c r="K141" s="15"/>
-      <c r="L141" s="15"/>
-      <c r="M141" s="15"/>
-      <c r="N141" s="15"/>
-      <c r="O141" s="15"/>
-      <c r="P141" s="15"/>
-      <c r="Q141" s="16"/>
+      <c r="C141" s="10"/>
+      <c r="D141" s="10"/>
+      <c r="E141" s="10"/>
+      <c r="F141" s="10"/>
+      <c r="G141" s="10"/>
+      <c r="H141" s="10"/>
+      <c r="I141" s="10"/>
+      <c r="J141" s="10"/>
+      <c r="K141" s="10"/>
+      <c r="L141" s="10"/>
+      <c r="M141" s="10"/>
+      <c r="N141" s="10"/>
+      <c r="O141" s="10"/>
+      <c r="P141" s="10"/>
+      <c r="Q141" s="11"/>
     </row>
     <row r="142" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B142" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C142" s="10"/>
-      <c r="D142" s="10"/>
-      <c r="E142" s="10"/>
-      <c r="F142" s="10"/>
-      <c r="G142" s="10"/>
-      <c r="H142" s="10"/>
-      <c r="I142" s="10"/>
-      <c r="J142" s="10"/>
-      <c r="K142" s="10"/>
-      <c r="L142" s="10"/>
-      <c r="M142" s="10"/>
-      <c r="N142" s="10"/>
-      <c r="O142" s="10"/>
-      <c r="P142" s="10"/>
-      <c r="Q142" s="11"/>
+      <c r="B142" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C142" s="13"/>
+      <c r="D142" s="13"/>
+      <c r="E142" s="13"/>
+      <c r="F142" s="13"/>
+      <c r="G142" s="13"/>
+      <c r="H142" s="13"/>
+      <c r="I142" s="13"/>
+      <c r="J142" s="13"/>
+      <c r="K142" s="13"/>
+      <c r="L142" s="13"/>
+      <c r="M142" s="13"/>
+      <c r="N142" s="13"/>
+      <c r="O142" s="13"/>
+      <c r="P142" s="13"/>
+      <c r="Q142" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="B2:Q3"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="B137:Q137"/>
-    <mergeCell ref="B138:Q138"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B25:Q25"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="B11:Q11"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B39:Q39"/>
+    <mergeCell ref="B40:Q40"/>
+    <mergeCell ref="B43:Q43"/>
+    <mergeCell ref="B44:Q44"/>
+    <mergeCell ref="B26:Q26"/>
+    <mergeCell ref="B30:Q30"/>
+    <mergeCell ref="B29:Q29"/>
+    <mergeCell ref="B99:Q99"/>
+    <mergeCell ref="B100:Q100"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B67:Q67"/>
+    <mergeCell ref="B68:Q68"/>
+    <mergeCell ref="B82:Q82"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B57:Q57"/>
+    <mergeCell ref="B58:Q58"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B53:Q53"/>
+    <mergeCell ref="B54:Q54"/>
     <mergeCell ref="B141:Q141"/>
     <mergeCell ref="B142:Q142"/>
     <mergeCell ref="B109:Q109"/>
@@ -2888,6 +2919,15 @@
     <mergeCell ref="B114:Q114"/>
     <mergeCell ref="B119:C119"/>
     <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B123:Q123"/>
+    <mergeCell ref="B124:Q124"/>
+    <mergeCell ref="B127:Q127"/>
+    <mergeCell ref="B128:Q128"/>
+    <mergeCell ref="B2:Q3"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="B137:Q137"/>
+    <mergeCell ref="B138:Q138"/>
     <mergeCell ref="B85:Q85"/>
     <mergeCell ref="B86:Q86"/>
     <mergeCell ref="B91:C91"/>
@@ -2899,43 +2939,6 @@
     <mergeCell ref="B77:C77"/>
     <mergeCell ref="B78:C78"/>
     <mergeCell ref="B81:Q81"/>
-    <mergeCell ref="B82:Q82"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B57:Q57"/>
-    <mergeCell ref="B58:Q58"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B123:Q123"/>
-    <mergeCell ref="B124:Q124"/>
-    <mergeCell ref="B127:Q127"/>
-    <mergeCell ref="B128:Q128"/>
-    <mergeCell ref="B99:Q99"/>
-    <mergeCell ref="B100:Q100"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B67:Q67"/>
-    <mergeCell ref="B68:Q68"/>
-    <mergeCell ref="B53:Q53"/>
-    <mergeCell ref="B54:Q54"/>
-    <mergeCell ref="B39:Q39"/>
-    <mergeCell ref="B40:Q40"/>
-    <mergeCell ref="B43:Q43"/>
-    <mergeCell ref="B44:Q44"/>
-    <mergeCell ref="B26:Q26"/>
-    <mergeCell ref="B30:Q30"/>
-    <mergeCell ref="B29:Q29"/>
-    <mergeCell ref="B25:Q25"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="B11:Q11"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
